--- a/AfDD_2024_Annex_Table_Tab05.xlsx
+++ b/AfDD_2024_Annex_Table_Tab05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45AD42BD-5619-40F3-B333-C271B7B98BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7AD3AA-7A29-475F-89C4-B8C6633B7B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{DABFE021-D690-4C97-A9C7-0950CA61ECFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12C32893-F634-478A-802B-9D2FD9402DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DF112F-44A1-46C4-89F2-D2353FD10908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8EAC17-7B58-48E2-9E46-8DDC0772F496}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5513,12 +5513,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FD4A46E7-F493-46D2-B724-41C16E8CAA6B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5BBF148E-142D-40D6-A77D-E5DF4B499A19}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DCACB51B-D35B-471C-8A6F-BB6ACEA3AFB0}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{51A1AAA1-2837-437A-B79F-D30F678E0EE4}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{E2CE4725-472F-4FD3-92CF-5317E12FB649}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{8C1BDCCB-930F-4785-B4DE-B6BC56FC1D29}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C9AEBECE-6101-4917-A380-A5D366CDC061}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6E6EA341-B5D9-4B66-A7B3-812609FCF55B}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{28079A92-BABE-4FA8-AE72-753CF0C43B96}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{D3D9A49E-FB02-461A-9F90-C3598321A38A}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{D754FAF5-AB8E-4BA9-A27F-B74A24320219}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{A6540E8D-37D5-4691-B974-60D436DBE95A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab05.xlsx
+++ b/AfDD_2024_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7AD3AA-7A29-475F-89C4-B8C6633B7B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E390528-A246-43A1-90C8-12FB340FCD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12C32893-F634-478A-802B-9D2FD9402DE1}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{82D2569E-D402-42DC-BE8F-370BBAC6D646}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -766,6 +766,43 @@
       <top style="medium">
         <color rgb="FFD42C2D"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -776,15 +813,6 @@
         <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD42C2D"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -853,9 +881,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFD42C2D"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FFD42C2D"/>
@@ -864,10 +890,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="medium">
         <color rgb="FFD42C2D"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFD42C2D"/>
       </bottom>
@@ -888,39 +914,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD42C2D"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD42C2D"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD42C2D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD42C2D"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD42C2D"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD42C2D"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -941,18 +941,12 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -962,277 +956,277 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1243,10 +1237,10 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1562,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8EAC17-7B58-48E2-9E46-8DDC0772F496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C4133D-D982-4D92-ADE6-B4A4CFBB9645}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1574,10 +1568,10 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" style="112" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="111" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.42578125" style="111" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1608,3917 +1602,3917 @@
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>36684.201999999997</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>25197.64466976</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>11486.557330240001</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>6004.1899021546897</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>8</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>9440.3388221619007</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16">
         <v>1</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <v>4.99271536349156</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <v>85.241240869572195</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="19">
         <v>90.233956233063793</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>2675.3519999999999</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>1949.4487418399999</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>725.90325815999995</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="26">
+      <c r="F4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="24">
         <v>5.8848464430453502</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="24">
         <v>50.323263970591299</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="25">
         <v>56.208110413636597</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>1210.8219999999999</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>300.16277380000002</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <v>910.65922620000003</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="32">
+      <c r="F5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="30">
         <v>6.5200609010786401</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="30">
         <v>55.7616119486201</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="31">
         <v>62.281672849698701</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>2330.3180000000002</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="28">
         <v>708.76621969999997</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>1621.5517803</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="32">
+      <c r="F6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="30">
         <v>6.8122571442624604</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="30">
         <v>54.623308193066698</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="31">
         <v>61.435565337329201</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>20931.751</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="28">
         <v>3826.3240827999998</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>17105.426917199999</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <v>978.98922143110599</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="28">
         <v>1</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="28">
         <v>1211.9591717937501</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="29">
         <v>1</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="30">
         <v>4.5847382364679099</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="30">
         <v>75.877554894787593</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="31">
         <v>80.462293131255507</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>33897.353999999999</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="28">
         <v>13136.24159562</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>20761.112404380001</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <v>2899.8260252371801</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="28">
         <v>5</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="28">
         <v>2909.2827442241701</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="29">
         <v>2</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="30">
         <v>4.7499275795257496</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="30">
         <v>79.965080144235003</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="31">
         <v>84.715007723760706</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>2604.172</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="28">
         <v>1429.3258439199999</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="28">
         <v>1174.8461560799999</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="27">
         <v>434.48521265485903</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="28">
         <v>1</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="32">
+      <c r="H9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="30">
         <v>6.5726810851183197</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="30">
         <v>60.526376577994</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="31">
         <v>67.099057663112404</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <v>60414.493999999999</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="28">
         <v>41576.650625859998</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>18837.84337414</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>6033.7427193999201</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="28">
         <v>9</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="28">
         <v>22475.687667627601</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="29">
         <v>6</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="30">
         <v>8.8864858663547608</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="30">
         <v>42.976246776644899</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="31">
         <v>51.862732642999603</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>20569.737000000001</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>9530.9876389500005</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>11038.749361050001</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>1362.8623417490601</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <v>2</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <v>3209.9026093114799</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>1</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <v>3.17063018680336</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="24">
         <v>76.097094100282405</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="25">
         <v>79.267724287085798</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="33">
         <v>16665.409</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="34">
         <v>5419.0910445299996</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="34">
         <v>11246.31795547</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>932.98820822197695</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>2</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="34">
         <v>1397.9706245162999</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="35">
         <v>1</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <v>5.84081069300096</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="36">
         <v>71.382710616742997</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="37">
         <v>77.223521309744001</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="40">
         <v>197983.611</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="41">
         <v>103074.64323678</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="42">
         <v>94908.967763220004</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="40">
         <v>18647.0836308488</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="41">
         <v>28</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="41">
         <v>40645.1416396352</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="43">
         <v>12</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="44">
         <v>5.8015153499149097</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="45">
         <v>65.277448809253698</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="46">
         <v>71.078964159168606</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="48">
         <v>13238.558999999999</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="49">
         <v>1957.18856256</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>11281.37043744</v>
       </c>
-      <c r="F14" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="51">
+      <c r="F14" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="49">
         <v>1224.26892292661</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="50">
         <v>1</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="30">
         <v>4.7573347522073002</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="51">
         <v>86.238937529629993</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="52">
         <v>90.996272281837307</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="27">
         <v>28647.293000000001</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="28">
         <v>16992.141842950001</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>11655.151157050001</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="27">
         <v>2641.9274221903902</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="28">
         <v>5</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="28">
         <v>8784.5435341557004</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="29">
         <v>2</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="30">
         <v>4.7861010585774801</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="30">
         <v>75.732853332291498</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="31">
         <v>80.518954390868998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="27">
         <v>5742.3159999999998</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="28">
         <v>2504.4537002400002</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>3237.86229976</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="30">
+      <c r="F16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="28">
         <v>1048.68455778714</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="29">
         <v>1</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="30">
         <v>5.0852838820128499</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="30">
         <v>96.365699811961605</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="31">
         <v>101.450983693974</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="54">
         <v>18278.567999999999</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>4453.7558788799997</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>13824.81212112</v>
       </c>
-      <c r="F17" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="F17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="15">
         <v>1639.35123660921</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="55">
         <v>1</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <v>3.9611289429229202</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="17">
         <v>93.505195724585604</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="56">
         <v>97.466324667508601</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="54">
         <v>6106.8689999999997</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>4225.2205237199996</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>1881.6484762800001</v>
       </c>
-      <c r="F18" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="17">
+      <c r="F18" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="15">
         <v>3954.26794472954</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="55">
         <v>2</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="17">
         <v>4.90939830757282</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="17">
         <v>71.734441370313604</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="56">
         <v>76.643839677886405</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="21">
         <v>102262.808</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <v>48517.566627519998</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>53745.241372479999</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>5690.7653681232196</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="22">
         <v>9</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="22">
         <v>28579.469143090901</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="23">
         <v>7</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <v>5.7111720035282696</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="24">
         <v>91.898428212093293</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="25">
         <v>97.609600215621498</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="54">
         <v>1714.671</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>1276.5382660800001</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>438.13273392000002</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="54">
         <v>526.84446627613102</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="15">
         <v>1</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="19">
+      <c r="H20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="17">
         <v>5.30674024594801</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="17">
         <v>64.879159925759097</v>
       </c>
-      <c r="L20" s="58">
+      <c r="L20" s="56">
         <v>70.185900171707104</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="54">
         <v>2436.5659999999998</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>2217.9816641399998</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>218.58433586000001</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="54">
         <v>928.46779917319998</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>1</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="19">
+      <c r="H21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="17">
         <v>6.4852696713806397</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="17">
         <v>60.130225090280298</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="56">
         <v>66.615494761660898</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="33">
         <v>231.85599999999999</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>177.14030256000001</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="34">
         <v>54.71569744</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="38">
+      <c r="F22" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="36">
         <v>6.5975097487164804</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="36">
         <v>67.9489302759753</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="37">
         <v>74.546440024691705</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="40">
         <v>178659.50599999999</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="41">
         <v>82321.987368650007</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="42">
         <v>96337.518631350002</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="40">
         <v>9788.0050557629402</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="41">
         <v>16</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="41">
         <v>45230.585339299098</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="43">
         <v>14</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="44">
         <v>5.28888206809631</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="45">
         <v>78.7148745858767</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="46">
         <v>84.003756653972999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="48">
         <v>852.07500000000005</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="49">
         <v>256.74723899999998</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <v>595.32776100000001</v>
       </c>
-      <c r="F24" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="32">
+      <c r="F24" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="30">
         <v>7.4135137324799398</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="51">
         <v>65.170136919711595</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="52">
         <v>72.583650652191494</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <v>1136.4549999999999</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="28">
         <v>892.7081316</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="28">
         <v>243.74686840000001</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="27">
         <v>653.923022152263</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="28">
         <v>1</v>
       </c>
-      <c r="H25" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="32">
+      <c r="H25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="30">
         <v>7.0285165804873504</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="30">
         <v>45.962002124305499</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="31">
         <v>52.990518704792898</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="27">
         <v>3748.902</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="28">
         <v>1622.0374283399999</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>2126.8645716599999</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="27">
         <v>692.92765327147504</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="28">
         <v>1</v>
       </c>
-      <c r="H26" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="32">
+      <c r="H26" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="30">
         <v>7.0372845762456304</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="30">
         <v>67.447718374573498</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="31">
         <v>74.485002950819094</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="27">
         <v>126527.06</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="28">
         <v>29299.871284199999</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="28">
         <v>97227.188715800003</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="27">
         <v>1984.8811814675801</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="28">
         <v>4</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="28">
         <v>5722.2540071902804</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="29">
         <v>1</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="30">
         <v>5.4873360341637598</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="30">
         <v>68.286285479369695</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="31">
         <v>73.773621513533399</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="27">
         <v>55100.586000000003</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="28">
         <v>16265.6929872</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>38834.893012799999</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="27">
         <v>1636.7813566114701</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="28">
         <v>4</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="28">
         <v>6495.0807287936304</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="29">
         <v>2</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="30">
         <v>4.8556996671780803</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="30">
         <v>62.166320996408203</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="31">
         <v>67.022020663586304</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="27">
         <v>30325.732</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="28">
         <v>12298.903869919999</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <v>18026.828130080001</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="27">
         <v>925.684827921737</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="28">
         <v>2</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="28">
         <v>3922.40751994312</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="29">
         <v>1</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J29" s="30">
         <v>5.8841795840640003</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K29" s="30">
         <v>66.937064790976294</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="31">
         <v>72.821244375040294</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="27">
         <v>1300.557</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="28">
         <v>531.49862918999997</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="28">
         <v>769.05837081000004</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="32">
+      <c r="F30" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="30">
         <v>18.825005003959699</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="30">
         <v>22.652490231400499</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="31">
         <v>41.477495235360202</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="27">
         <v>14094.683000000001</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="28">
         <v>2521.8206823599999</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="28">
         <v>11572.86231764</v>
       </c>
-      <c r="F31" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="30">
+      <c r="F31" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="28">
         <v>1259.53909717287</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="29">
         <v>1</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J31" s="30">
         <v>5.5749822970265699</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K31" s="30">
         <v>64.889902925420202</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="31">
         <v>70.464885222446696</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="27">
         <v>107.66</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="28">
         <v>63.325612</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>44.334387999999997</v>
       </c>
-      <c r="F32" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="32">
+      <c r="F32" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="30">
         <v>12.404603434954099</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="30">
         <v>33.5497688793699</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="31">
         <v>45.954372314324097</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="27">
         <v>18143.378000000001</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="28">
         <v>8694.3067375999999</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="28">
         <v>9449.0712624000007</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="27">
         <v>1921.78689036745</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="28">
         <v>3</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="28">
         <v>3852.77360394485</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="29">
         <v>2</v>
       </c>
-      <c r="J33" s="32">
+      <c r="J33" s="30">
         <v>5.0666324255200399</v>
       </c>
-      <c r="K33" s="32">
+      <c r="K33" s="30">
         <v>93.373550639199706</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="31">
         <v>98.440183064719704</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="54">
         <v>11088.796</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="15">
         <v>2350.2703121999998</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
         <v>8738.5256878</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="54">
         <v>347.16185649129397</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>1</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="19">
+      <c r="H34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="17">
         <v>5.4380321665089904</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <v>79.422236485106595</v>
       </c>
-      <c r="L34" s="58">
+      <c r="L34" s="56">
         <v>84.860268651615598</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="27">
         <v>48109.006000000001</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="28">
         <v>17483.774960520001</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="28">
         <v>30625.231039480001</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="27">
         <v>2286.4351402681</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="28">
         <v>5</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="28">
         <v>7614.7355876155898</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="29">
         <v>2</v>
       </c>
-      <c r="J35" s="32">
+      <c r="J35" s="30">
         <v>6.4092916975255703</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="30">
         <v>73.051685308090299</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="31">
         <v>79.460977005615902</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="27">
         <v>67438.106</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="28">
         <v>25227.921073540001</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="28">
         <v>42210.184926460002</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="27">
         <v>2816.7655532113499</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="28">
         <v>5</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="28">
         <v>8933.8633970402607</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="29">
         <v>2</v>
       </c>
-      <c r="J36" s="32">
+      <c r="J36" s="30">
         <v>5.7518567598708001</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="30">
         <v>80.169106805297801</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="31">
         <v>85.920963565168606</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="33">
         <v>48582.334000000003</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="34">
         <v>13005.976635139999</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="34">
         <v>35576.35736486</v>
       </c>
-      <c r="F37" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="36">
+      <c r="F37" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="34">
         <v>3605.6530129767698</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="35">
         <v>1</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37" s="36">
         <v>3.1925790004520902</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="36">
         <v>82.496521459016506</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="37">
         <v>85.689100459468605</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="40">
         <v>426555.33</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="41">
         <v>130514.85558281001</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="42">
         <v>296040.47441719001</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="40">
         <v>13266.347481762699</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G38" s="41">
         <v>26</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H38" s="41">
         <v>41406.306954677399</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="43">
         <v>12</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="44">
         <v>7.1692509257454704</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="45">
         <v>64.683913672731904</v>
       </c>
-      <c r="L38" s="48">
+      <c r="L38" s="46">
         <v>71.853164598477306</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>45606.48</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="14">
         <v>34327.085366400002</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
         <v>11279.394633600001</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="13">
         <v>3515.4921540369501</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="14">
         <v>7</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="14">
         <v>2929.2764791064101</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="16">
         <v>1</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="17">
         <v>10.499270862679101</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="18">
         <v>48.375994279352398</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="19">
         <v>58.875265142031601</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="27">
         <v>112716.598</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="28">
         <v>48580.853737999998</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="28">
         <v>64135.744262</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="27">
         <v>5713.9986240380304</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="28">
         <v>11</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="28">
         <v>28953.167273125</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="29">
         <v>2</v>
       </c>
-      <c r="J40" s="32">
+      <c r="J40" s="30">
         <v>7.8623253942671703</v>
       </c>
-      <c r="K40" s="32">
+      <c r="K40" s="30">
         <v>52.2223035861971</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="31">
         <v>60.084628980464203</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="54">
         <v>6888.3879999999999</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="15">
         <v>5621.3379112800003</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="15">
         <v>1267.0500887200001</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="54">
         <v>1841.69622762883</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="15">
         <v>2</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="15">
         <v>1182.1970533737999</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I41" s="55">
         <v>1</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="17">
         <v>7.3824381750938199</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="17">
         <v>41.157210348619103</v>
       </c>
-      <c r="L41" s="58">
+      <c r="L41" s="56">
         <v>48.539648523712899</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="54">
         <v>4862.9889999999996</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="15">
         <v>2805.89602311</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="15">
         <v>2057.09297689</v>
       </c>
-      <c r="F42" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="17">
+      <c r="F42" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="15">
         <v>1406.0608732711501</v>
       </c>
-      <c r="I42" s="57">
+      <c r="I42" s="55">
         <v>1</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="17">
         <v>5.7667054129622102</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="17">
         <v>73.968883459890193</v>
       </c>
-      <c r="L42" s="58">
+      <c r="L42" s="56">
         <v>79.735588872852404</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="27">
         <v>37840.044000000002</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="28">
         <v>24641.81505324</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="28">
         <v>13198.22894676</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="27">
         <v>3395.4147838141598</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="28">
         <v>6</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="28">
         <v>9387.1353138017803</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="29">
         <v>5</v>
       </c>
-      <c r="J43" s="32">
+      <c r="J43" s="30">
         <v>12.2222376889996</v>
       </c>
-      <c r="K43" s="32">
+      <c r="K43" s="30">
         <v>40.013969986656001</v>
       </c>
-      <c r="L43" s="33">
+      <c r="L43" s="31">
         <v>52.236207675655599</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="33">
         <v>12458.223</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="34">
         <v>8788.5288331200009</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="34">
         <v>3669.69416688</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="33">
         <v>662.28525339925397</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="34">
         <v>1</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44" s="34">
         <v>2520.6623279128698</v>
       </c>
-      <c r="I44" s="37">
+      <c r="I44" s="35">
         <v>1</v>
       </c>
-      <c r="J44" s="38">
+      <c r="J44" s="36">
         <v>14.1241104007303</v>
       </c>
-      <c r="K44" s="38">
+      <c r="K44" s="36">
         <v>37.386720092991801</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="37">
         <v>51.510830493722104</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="40">
         <v>220372.72200000001</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="41">
         <v>124765.51692515</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="58">
         <v>95607.205074850004</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="40">
         <v>15128.8870429172</v>
       </c>
-      <c r="G45" s="43">
+      <c r="G45" s="41">
         <v>27</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="41">
         <v>46378.499320591</v>
       </c>
-      <c r="I45" s="45">
+      <c r="I45" s="43">
         <v>11</v>
       </c>
-      <c r="J45" s="61">
+      <c r="J45" s="59">
         <v>9.6428479891220302</v>
       </c>
-      <c r="K45" s="47">
+      <c r="K45" s="45">
         <v>48.854180292284397</v>
       </c>
-      <c r="L45" s="48">
+      <c r="L45" s="46">
         <v>58.4970282814065</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="48">
         <v>13712.828</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="49">
         <v>6870.1268280000004</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="28">
         <v>6842.701172</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="48">
         <v>1581.12984241868</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="49">
         <v>3</v>
       </c>
-      <c r="H46" s="51">
+      <c r="H46" s="49">
         <v>1309.6291806498</v>
       </c>
-      <c r="I46" s="52">
+      <c r="I46" s="50">
         <v>1</v>
       </c>
-      <c r="J46" s="32">
+      <c r="J46" s="30">
         <v>5.6113608541639302</v>
       </c>
-      <c r="K46" s="53">
+      <c r="K46" s="51">
         <v>77.331201979160298</v>
       </c>
-      <c r="L46" s="54">
+      <c r="L46" s="52">
         <v>82.942562833324303</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="27">
         <v>23251.485000000001</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="28">
         <v>7561.3829219999998</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="28">
         <v>15690.102078</v>
       </c>
-      <c r="F47" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="30">
+      <c r="F47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="28">
         <v>4433.9820916052004</v>
       </c>
-      <c r="I47" s="31">
+      <c r="I47" s="29">
         <v>2</v>
       </c>
-      <c r="J47" s="32">
+      <c r="J47" s="30">
         <v>4.6759250800903303</v>
       </c>
-      <c r="K47" s="32">
+      <c r="K47" s="30">
         <v>80.022265629033797</v>
       </c>
-      <c r="L47" s="33">
+      <c r="L47" s="31">
         <v>84.698190709124205</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="54">
         <v>598.68200000000002</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="15">
         <v>406.99599724000001</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="15">
         <v>191.68600276000001</v>
       </c>
-      <c r="F48" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="19">
+      <c r="F48" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="17">
         <v>8.3679040631779102</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="17">
         <v>37.558193384844103</v>
       </c>
-      <c r="L48" s="58">
+      <c r="L48" s="56">
         <v>45.926097448021999</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="27">
         <v>28873.034</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="28">
         <v>15345.72884066</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="28">
         <v>13527.30515934</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="27">
         <v>618.69779465266902</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="28">
         <v>1</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="28">
         <v>5825.7156512173497</v>
       </c>
-      <c r="I49" s="31">
+      <c r="I49" s="29">
         <v>1</v>
       </c>
-      <c r="J49" s="32">
+      <c r="J49" s="30">
         <v>4.2573059447403203</v>
       </c>
-      <c r="K49" s="32">
+      <c r="K49" s="30">
         <v>72.817909612589602</v>
       </c>
-      <c r="L49" s="33">
+      <c r="L49" s="31">
         <v>77.075215557329898</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="27">
         <v>2773.1680000000001</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="28">
         <v>1787.9168729600001</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="28">
         <v>985.25112704000003</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="27">
         <v>534.95778613832397</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="28">
         <v>1</v>
       </c>
-      <c r="H50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="32">
+      <c r="H50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="30">
         <v>4.4345150442001904</v>
       </c>
-      <c r="K50" s="32">
+      <c r="K50" s="30">
         <v>77.467578766330305</v>
       </c>
-      <c r="L50" s="33">
+      <c r="L50" s="31">
         <v>81.902093810530502</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="21">
         <v>34121.985000000001</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="22">
         <v>20213.1814743</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="22">
         <v>13908.803525699999</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="21">
         <v>762.31685748099903</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="22">
         <v>1</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="22">
         <v>7841.0306950951199</v>
       </c>
-      <c r="I51" s="25">
+      <c r="I51" s="23">
         <v>3</v>
       </c>
-      <c r="J51" s="26">
+      <c r="J51" s="24">
         <v>6.1081694773455704</v>
       </c>
-      <c r="K51" s="26">
+      <c r="K51" s="24">
         <v>61.263089708896899</v>
       </c>
-      <c r="L51" s="27">
+      <c r="L51" s="25">
         <v>67.371259186242497</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="27">
         <v>14190.611999999999</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="28">
         <v>5404.4945802000002</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="28">
         <v>8786.1174198000008</v>
       </c>
-      <c r="F52" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="30">
+      <c r="F52" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="28">
         <v>2017.59260390039</v>
       </c>
-      <c r="I52" s="31">
+      <c r="I52" s="29">
         <v>1</v>
       </c>
-      <c r="J52" s="32">
+      <c r="J52" s="30">
         <v>5.9647200591297302</v>
       </c>
-      <c r="K52" s="32">
+      <c r="K52" s="30">
         <v>74.282506520185393</v>
       </c>
-      <c r="L52" s="33">
+      <c r="L52" s="31">
         <v>80.247226579315097</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="27">
         <v>2150.8420000000001</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="28">
         <v>977.90182372000004</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="28">
         <v>1172.9401762800001</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="27">
         <v>666.48961781548496</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="28">
         <v>1</v>
       </c>
-      <c r="H53" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="32">
+      <c r="H53" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="30">
         <v>4.9300726429825303</v>
       </c>
-      <c r="K53" s="32">
+      <c r="K53" s="30">
         <v>68.906168672673402</v>
       </c>
-      <c r="L53" s="33">
+      <c r="L53" s="31">
         <v>73.836241315655897</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="27">
         <v>5418.3760000000002</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="28">
         <v>2902.4614719199999</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="28">
         <v>2515.9145280799999</v>
       </c>
-      <c r="F54" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="30">
+      <c r="F54" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="28">
         <v>1654.26682865563</v>
       </c>
-      <c r="I54" s="31">
+      <c r="I54" s="29">
         <v>1</v>
       </c>
-      <c r="J54" s="32">
+      <c r="J54" s="30">
         <v>5.8078602762225398</v>
       </c>
-      <c r="K54" s="32">
+      <c r="K54" s="30">
         <v>70.558255184421299</v>
       </c>
-      <c r="L54" s="33">
+      <c r="L54" s="31">
         <v>76.366115460643798</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="27">
         <v>23293.698</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="28">
         <v>10759.126169220001</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="28">
         <v>12534.57183078</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="27">
         <v>467.86581126999903</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="28">
         <v>1</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H55" s="28">
         <v>3080.2276990718801</v>
       </c>
-      <c r="I55" s="31">
+      <c r="I55" s="29">
         <v>1</v>
       </c>
-      <c r="J55" s="32">
+      <c r="J55" s="30">
         <v>4.6083881663635902</v>
       </c>
-      <c r="K55" s="32">
+      <c r="K55" s="30">
         <v>92.662725711993801</v>
       </c>
-      <c r="L55" s="33">
+      <c r="L55" s="31">
         <v>97.271113878357397</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="27">
         <v>27202.843000000001</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="28">
         <v>4639.1728452200005</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="28">
         <v>22563.67015478</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="27">
         <v>576.43380194173506</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="28">
         <v>1</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="28">
         <v>1449.54689279281</v>
       </c>
-      <c r="I56" s="31">
+      <c r="I56" s="29">
         <v>1</v>
       </c>
-      <c r="J56" s="32">
+      <c r="J56" s="30">
         <v>4.9096065025005897</v>
       </c>
-      <c r="K56" s="32">
+      <c r="K56" s="30">
         <v>99.822045080959597</v>
       </c>
-      <c r="L56" s="33">
+      <c r="L56" s="31">
         <v>104.73165158346001</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="27">
         <v>223804.63200000001</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="28">
         <v>121487.86838856</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <v>102316.76361143999</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="27">
         <v>22513.4281813054</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="28">
         <v>37</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H57" s="28">
         <v>42361.175212976203</v>
       </c>
-      <c r="I57" s="31">
+      <c r="I57" s="29">
         <v>13</v>
       </c>
-      <c r="J57" s="32">
+      <c r="J57" s="30">
         <v>5.5034471265700997</v>
       </c>
-      <c r="K57" s="32">
+      <c r="K57" s="30">
         <v>78.822174288487204</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="31">
         <v>84.325621415057299</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="27">
         <v>17763.163</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="28">
         <v>8806.7985837699998</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="28">
         <v>8956.3644162300006</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="27">
         <v>763.47103042904098</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="28">
         <v>2</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="28">
         <v>3274.0114685228</v>
       </c>
-      <c r="I58" s="31">
+      <c r="I58" s="29">
         <v>1</v>
       </c>
-      <c r="J58" s="32">
+      <c r="J58" s="30">
         <v>5.6267468451346803</v>
       </c>
-      <c r="K58" s="32">
+      <c r="K58" s="30">
         <v>73.818782398114905</v>
       </c>
-      <c r="L58" s="33">
+      <c r="L58" s="31">
         <v>79.445529243249595</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="27">
         <v>8791.0920000000006</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59" s="28">
         <v>3894.4537559999999</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E59" s="28">
         <v>4896.6382439999998</v>
       </c>
-      <c r="F59" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="30">
+      <c r="F59" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="28">
         <v>1347.51482644212</v>
       </c>
-      <c r="I59" s="31">
+      <c r="I59" s="29">
         <v>1</v>
       </c>
-      <c r="J59" s="32">
+      <c r="J59" s="30">
         <v>5.4085759262955202</v>
       </c>
-      <c r="K59" s="32">
+      <c r="K59" s="30">
         <v>66.099258901155693</v>
       </c>
-      <c r="L59" s="33">
+      <c r="L59" s="31">
         <v>71.507834827451205</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="63">
+      <c r="C60" s="61">
         <v>9053.7990000000009</v>
       </c>
-      <c r="D60" s="64">
+      <c r="D60" s="62">
         <v>4028.0351750999998</v>
       </c>
-      <c r="E60" s="64">
+      <c r="E60" s="62">
         <v>5025.7638249000001</v>
       </c>
-      <c r="F60" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="64">
+      <c r="F60" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="62">
         <v>1995.1063967089499</v>
       </c>
-      <c r="I60" s="65">
+      <c r="I60" s="63">
         <v>1</v>
       </c>
-      <c r="J60" s="66">
+      <c r="J60" s="64">
         <v>5.5511687067445203</v>
       </c>
-      <c r="K60" s="66">
+      <c r="K60" s="64">
         <v>69.330936877666801</v>
       </c>
-      <c r="L60" s="67">
+      <c r="L60" s="65">
         <v>74.882105584411406</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="42">
+      <c r="C61" s="40">
         <v>435000.239</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="41">
         <v>215085.64572887</v>
       </c>
-      <c r="E61" s="60">
+      <c r="E61" s="58">
         <v>219914.59327113</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61" s="40">
         <v>28484.790723452399</v>
       </c>
-      <c r="G61" s="43">
+      <c r="G61" s="41">
         <v>48</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="41">
         <v>76589.799547638293</v>
       </c>
-      <c r="I61" s="45">
+      <c r="I61" s="43">
         <v>27</v>
       </c>
-      <c r="J61" s="61">
+      <c r="J61" s="59">
         <v>5.4510511143774698</v>
       </c>
-      <c r="K61" s="47">
+      <c r="K61" s="45">
         <v>73.384206181100893</v>
       </c>
-      <c r="L61" s="48">
+      <c r="L61" s="46">
         <v>78.835257295478399</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="69" t="s">
+      <c r="B62" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="70">
+      <c r="C62" s="68">
         <v>1458571.4080000001</v>
       </c>
-      <c r="D62" s="71">
+      <c r="D62" s="69">
         <v>655762.64884226001</v>
       </c>
-      <c r="E62" s="71">
+      <c r="E62" s="69">
         <v>802808.75915774005</v>
       </c>
-      <c r="F62" s="70">
+      <c r="F62" s="68">
         <v>85315.113934744004</v>
       </c>
-      <c r="G62" s="71">
+      <c r="G62" s="69">
         <v>145</v>
       </c>
-      <c r="H62" s="71">
+      <c r="H62" s="69">
         <v>250250.332801841</v>
       </c>
-      <c r="I62" s="72">
+      <c r="I62" s="70">
         <v>76</v>
       </c>
-      <c r="J62" s="73">
+      <c r="J62" s="71">
         <v>6.4001381430156803</v>
       </c>
-      <c r="K62" s="73">
+      <c r="K62" s="71">
         <v>67.790209726924004</v>
       </c>
-      <c r="L62" s="74">
+      <c r="L62" s="72">
         <v>74.1903478699396</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="68" t="s">
+      <c r="A63" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="75" t="s">
+      <c r="B63" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="76">
+      <c r="C63" s="74">
         <v>6539284.0080000004</v>
       </c>
-      <c r="D63" s="77">
+      <c r="D63" s="75">
         <v>3918568.8312521898</v>
       </c>
-      <c r="E63" s="71">
+      <c r="E63" s="69">
         <v>2620715.1767478101</v>
       </c>
-      <c r="F63" s="76">
+      <c r="F63" s="74">
         <v>598148.56958568597</v>
       </c>
-      <c r="G63" s="77">
+      <c r="G63" s="75">
         <v>1086</v>
       </c>
-      <c r="H63" s="77">
+      <c r="H63" s="75">
         <v>1758950.76131025</v>
       </c>
-      <c r="I63" s="78">
+      <c r="I63" s="76">
         <v>534</v>
       </c>
-      <c r="J63" s="73">
+      <c r="J63" s="71">
         <v>18.477569230816499</v>
       </c>
-      <c r="K63" s="79">
+      <c r="K63" s="77">
         <v>34.234345462234003</v>
       </c>
-      <c r="L63" s="80">
+      <c r="L63" s="78">
         <v>52.711914693050502</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="83">
+      <c r="C64" s="81">
         <v>659979.29799999995</v>
       </c>
-      <c r="D64" s="84">
+      <c r="D64" s="82">
         <v>539702.37316367996</v>
       </c>
-      <c r="E64" s="77">
+      <c r="E64" s="75">
         <v>120276.92483632</v>
       </c>
-      <c r="F64" s="83">
+      <c r="F64" s="81">
         <v>69954.339958390003</v>
       </c>
-      <c r="G64" s="84">
+      <c r="G64" s="82">
         <v>131</v>
       </c>
-      <c r="H64" s="84">
+      <c r="H64" s="82">
         <v>251155.06122306199</v>
       </c>
-      <c r="I64" s="85">
+      <c r="I64" s="83">
         <v>75</v>
       </c>
-      <c r="J64" s="79">
+      <c r="J64" s="77">
         <v>13.7065537290558</v>
       </c>
-      <c r="K64" s="86">
+      <c r="K64" s="84">
         <v>35.017802493286503</v>
       </c>
-      <c r="L64" s="87">
+      <c r="L64" s="85">
         <v>48.724356222342301</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="81" t="s">
+      <c r="A65" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="88">
+      <c r="C65" s="86">
         <v>4341646.9610000001</v>
       </c>
-      <c r="D65" s="89">
+      <c r="D65" s="87">
         <v>2162787.02639574</v>
       </c>
-      <c r="E65" s="89">
+      <c r="E65" s="87">
         <v>2178859.9346042601</v>
       </c>
-      <c r="F65" s="88">
+      <c r="F65" s="86">
         <v>322590.999470888</v>
       </c>
-      <c r="G65" s="89">
+      <c r="G65" s="87">
         <v>559</v>
       </c>
-      <c r="H65" s="89">
+      <c r="H65" s="87">
         <v>975236.52000931895</v>
       </c>
-      <c r="I65" s="90">
+      <c r="I65" s="88">
         <v>290</v>
       </c>
-      <c r="J65" s="91">
+      <c r="J65" s="89">
         <v>10.1818530013866</v>
       </c>
-      <c r="K65" s="91">
+      <c r="K65" s="89">
         <v>43.947057491358002</v>
       </c>
-      <c r="L65" s="92">
+      <c r="L65" s="90">
         <v>54.128910492744602</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="81" t="s">
+      <c r="A66" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="93" t="s">
+      <c r="B66" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="94">
+      <c r="C66" s="92">
         <v>7997855.4160000002</v>
       </c>
-      <c r="D66" s="95">
+      <c r="D66" s="93">
         <v>4574331.4800944496</v>
       </c>
-      <c r="E66" s="95">
+      <c r="E66" s="93">
         <v>3423523.9359055501</v>
       </c>
-      <c r="F66" s="94">
+      <c r="F66" s="92">
         <v>683463.68352043</v>
       </c>
-      <c r="G66" s="95">
+      <c r="G66" s="93">
         <v>1231</v>
       </c>
-      <c r="H66" s="95">
+      <c r="H66" s="93">
         <v>2009201.0941121001</v>
       </c>
-      <c r="I66" s="96">
+      <c r="I66" s="94">
         <v>610</v>
       </c>
-      <c r="J66" s="97">
+      <c r="J66" s="95">
         <v>15.098391620758299</v>
       </c>
-      <c r="K66" s="97">
+      <c r="K66" s="95">
         <v>43.6230328730799</v>
       </c>
-      <c r="L66" s="98">
+      <c r="L66" s="96">
         <v>58.7214244938382</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="81" t="s">
+      <c r="A67" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="88">
+      <c r="C67" s="86">
         <v>654970.723</v>
       </c>
-      <c r="D67" s="89">
+      <c r="D67" s="87">
         <v>235478.70540963</v>
       </c>
-      <c r="E67" s="89">
+      <c r="E67" s="87">
         <v>419492.01759036997</v>
       </c>
-      <c r="F67" s="88">
+      <c r="F67" s="86">
         <v>27286.005316651601</v>
       </c>
-      <c r="G67" s="89">
+      <c r="G67" s="87">
         <v>48</v>
       </c>
-      <c r="H67" s="89">
+      <c r="H67" s="87">
         <v>100752.040683688</v>
       </c>
-      <c r="I67" s="90">
+      <c r="I67" s="88">
         <v>25</v>
       </c>
-      <c r="J67" s="91">
+      <c r="J67" s="89">
         <v>7.1015830846302199</v>
       </c>
-      <c r="K67" s="91">
+      <c r="K67" s="89">
         <v>63.5240961646575</v>
       </c>
-      <c r="L67" s="92">
+      <c r="L67" s="90">
         <v>70.6256792492877</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="81" t="s">
+      <c r="A68" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="88">
+      <c r="C68" s="86">
         <v>699760.12300000002</v>
       </c>
-      <c r="D68" s="89">
+      <c r="D68" s="87">
         <v>338122.40389463998</v>
       </c>
-      <c r="E68" s="89">
+      <c r="E68" s="87">
         <v>361637.71910535998</v>
       </c>
-      <c r="F68" s="88">
+      <c r="F68" s="86">
         <v>45653.258318391898</v>
       </c>
-      <c r="G68" s="89">
+      <c r="G68" s="87">
         <v>78</v>
       </c>
-      <c r="H68" s="89">
+      <c r="H68" s="87">
         <v>132540.300546424</v>
       </c>
-      <c r="I68" s="90">
+      <c r="I68" s="88">
         <v>42</v>
       </c>
-      <c r="J68" s="91">
+      <c r="J68" s="89">
         <v>6.2779788514203601</v>
       </c>
-      <c r="K68" s="91">
+      <c r="K68" s="89">
         <v>70.890868820961202</v>
       </c>
-      <c r="L68" s="92">
+      <c r="L68" s="90">
         <v>77.168847672381503</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="81" t="s">
+      <c r="A69" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="75" t="s">
+      <c r="B69" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="88">
+      <c r="C69" s="86">
         <v>311805.87199999997</v>
       </c>
-      <c r="D69" s="89">
+      <c r="D69" s="87">
         <v>109846.43688052001</v>
       </c>
-      <c r="E69" s="89">
+      <c r="E69" s="87">
         <v>201959.43511948001</v>
       </c>
-      <c r="F69" s="88">
+      <c r="F69" s="86">
         <v>10491.4741344373</v>
       </c>
-      <c r="G69" s="89">
+      <c r="G69" s="87">
         <v>19</v>
       </c>
-      <c r="H69" s="89">
+      <c r="H69" s="87">
         <v>50097.874302001001</v>
       </c>
-      <c r="I69" s="90">
+      <c r="I69" s="88">
         <v>14</v>
       </c>
-      <c r="J69" s="91">
+      <c r="J69" s="89">
         <v>5.0402366638245901</v>
       </c>
-      <c r="K69" s="91">
+      <c r="K69" s="89">
         <v>78.183064916139003</v>
       </c>
-      <c r="L69" s="92">
+      <c r="L69" s="90">
         <v>83.223301579963504</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="81" t="s">
+      <c r="A70" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="88">
+      <c r="C70" s="86">
         <v>229438.391</v>
       </c>
-      <c r="D70" s="89">
+      <c r="D70" s="87">
         <v>110041.45272077</v>
       </c>
-      <c r="E70" s="89">
+      <c r="E70" s="87">
         <v>119396.93827923</v>
       </c>
-      <c r="F70" s="88">
+      <c r="F70" s="86">
         <v>15792.1949579176</v>
       </c>
-      <c r="G70" s="89">
+      <c r="G70" s="87">
         <v>24</v>
       </c>
-      <c r="H70" s="89">
+      <c r="H70" s="87">
         <v>55930.463258633899</v>
       </c>
-      <c r="I70" s="90">
+      <c r="I70" s="88">
         <v>16</v>
       </c>
-      <c r="J70" s="91">
+      <c r="J70" s="89">
         <v>5.2879669339440802</v>
       </c>
-      <c r="K70" s="91">
+      <c r="K70" s="89">
         <v>78.051365006171096</v>
       </c>
-      <c r="L70" s="92">
+      <c r="L70" s="90">
         <v>83.339331940115201</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="75" t="s">
+      <c r="B71" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="88">
+      <c r="C71" s="86">
         <v>435000.239</v>
       </c>
-      <c r="D71" s="89">
+      <c r="D71" s="87">
         <v>215085.64572887</v>
       </c>
-      <c r="E71" s="89">
+      <c r="E71" s="87">
         <v>219914.59327113</v>
       </c>
-      <c r="F71" s="88">
+      <c r="F71" s="86">
         <v>28484.790723452399</v>
       </c>
-      <c r="G71" s="89">
+      <c r="G71" s="87">
         <v>48</v>
       </c>
-      <c r="H71" s="89">
+      <c r="H71" s="87">
         <v>76589.799547638293</v>
       </c>
-      <c r="I71" s="90">
+      <c r="I71" s="88">
         <v>27</v>
       </c>
-      <c r="J71" s="91">
+      <c r="J71" s="89">
         <v>5.4510511143774698</v>
       </c>
-      <c r="K71" s="91">
+      <c r="K71" s="89">
         <v>73.384206181100893</v>
       </c>
-      <c r="L71" s="92">
+      <c r="L71" s="90">
         <v>78.8352572954783</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="81" t="s">
+      <c r="A72" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="88">
+      <c r="C72" s="86">
         <v>308687.61499999999</v>
       </c>
-      <c r="D72" s="89">
+      <c r="D72" s="87">
         <v>87992.601048459997</v>
       </c>
-      <c r="E72" s="89">
+      <c r="E72" s="87">
         <v>220695.01395153999</v>
       </c>
-      <c r="F72" s="88">
+      <c r="F72" s="86">
         <v>8830.9694473581603</v>
       </c>
-      <c r="G72" s="89">
+      <c r="G72" s="87">
         <v>18</v>
       </c>
-      <c r="H72" s="89">
+      <c r="H72" s="87">
         <v>27290.496940521101</v>
       </c>
-      <c r="I72" s="90">
+      <c r="I72" s="88">
         <v>8</v>
       </c>
-      <c r="J72" s="91">
+      <c r="J72" s="89">
         <v>5.3540125102622698</v>
       </c>
-      <c r="K72" s="91">
+      <c r="K72" s="89">
         <v>72.108371784499496</v>
       </c>
-      <c r="L72" s="92">
+      <c r="L72" s="90">
         <v>77.462384294761804</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="81" t="s">
+      <c r="A73" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="88">
+      <c r="C73" s="86">
         <v>400270.549</v>
       </c>
-      <c r="D73" s="89">
+      <c r="D73" s="87">
         <v>189970.60628795001</v>
       </c>
-      <c r="E73" s="89">
+      <c r="E73" s="87">
         <v>210299.94271204999</v>
       </c>
-      <c r="F73" s="88">
+      <c r="F73" s="86">
         <v>28080.299380105102</v>
       </c>
-      <c r="G73" s="89">
+      <c r="G73" s="87">
         <v>44</v>
       </c>
-      <c r="H73" s="89">
+      <c r="H73" s="87">
         <v>82080.881699709498</v>
       </c>
-      <c r="I73" s="90">
+      <c r="I73" s="88">
         <v>22</v>
       </c>
-      <c r="J73" s="91">
+      <c r="J73" s="89">
         <v>7.1253427511253697</v>
       </c>
-      <c r="K73" s="91">
+      <c r="K73" s="89">
         <v>63.321967745711703</v>
       </c>
-      <c r="L73" s="92">
+      <c r="L73" s="90">
         <v>70.447310496837005</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="81" t="s">
+      <c r="A74" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="75" t="s">
+      <c r="B74" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="88">
+      <c r="C74" s="86">
         <v>107656.124</v>
       </c>
-      <c r="D74" s="89">
+      <c r="D74" s="87">
         <v>76184.663187149999</v>
       </c>
-      <c r="E74" s="89">
+      <c r="E74" s="87">
         <v>31471.46081285</v>
       </c>
-      <c r="F74" s="88">
+      <c r="F74" s="86">
         <v>9414.8884188791999</v>
       </c>
-      <c r="G74" s="89">
+      <c r="G74" s="87">
         <v>16</v>
       </c>
-      <c r="H74" s="89">
+      <c r="H74" s="87">
         <v>17425.332047465999</v>
       </c>
-      <c r="I74" s="90">
+      <c r="I74" s="88">
         <v>9</v>
       </c>
-      <c r="J74" s="91">
+      <c r="J74" s="89">
         <v>9.9989525080929997</v>
       </c>
-      <c r="K74" s="91">
+      <c r="K74" s="89">
         <v>48.180555633501903</v>
       </c>
-      <c r="L74" s="92">
+      <c r="L74" s="90">
         <v>58.179508141594901</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="81" t="s">
+      <c r="A75" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="75" t="s">
+      <c r="B75" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="76">
+      <c r="C75" s="74">
         <v>73562.936000000002</v>
       </c>
-      <c r="D75" s="77">
+      <c r="D75" s="75">
         <v>39895.924388899999</v>
       </c>
-      <c r="E75" s="95">
+      <c r="E75" s="93">
         <v>33667.011611100002</v>
       </c>
-      <c r="F75" s="76">
+      <c r="F75" s="74">
         <v>9570.5055452073593</v>
       </c>
-      <c r="G75" s="77">
+      <c r="G75" s="75">
         <v>14</v>
       </c>
-      <c r="H75" s="77">
+      <c r="H75" s="75">
         <v>12349.6215663861</v>
       </c>
-      <c r="I75" s="78">
+      <c r="I75" s="76">
         <v>3</v>
       </c>
-      <c r="J75" s="97">
+      <c r="J75" s="95">
         <v>5.9276258795788497</v>
       </c>
-      <c r="K75" s="79">
+      <c r="K75" s="77">
         <v>67.923922669459998</v>
       </c>
-      <c r="L75" s="80">
+      <c r="L75" s="78">
         <v>73.851548549038796</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="81" t="s">
+      <c r="A76" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="99" t="s">
+      <c r="B76" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="100">
+      <c r="C76" s="98">
         <v>685464.09199999995</v>
       </c>
-      <c r="D76" s="101">
+      <c r="D76" s="99">
         <v>354894.48316657997</v>
       </c>
-      <c r="E76" s="89">
+      <c r="E76" s="87">
         <v>330569.60883341997</v>
       </c>
-      <c r="F76" s="100">
+      <c r="F76" s="98">
         <v>43467.051856665297</v>
       </c>
-      <c r="G76" s="101">
+      <c r="G76" s="99">
         <v>81</v>
       </c>
-      <c r="H76" s="101">
+      <c r="H76" s="99">
         <v>124030.860758346</v>
       </c>
-      <c r="I76" s="102">
+      <c r="I76" s="100">
         <v>39</v>
       </c>
-      <c r="J76" s="91">
+      <c r="J76" s="89">
         <v>12.5485166987627</v>
       </c>
-      <c r="K76" s="103">
+      <c r="K76" s="101">
         <v>34.220091400753098</v>
       </c>
-      <c r="L76" s="104">
+      <c r="L76" s="102">
         <v>46.768608099515703</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="81" t="s">
+      <c r="A77" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="75" t="s">
+      <c r="B77" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="88">
+      <c r="C77" s="86">
         <v>439403.06300000002</v>
       </c>
-      <c r="D77" s="89">
+      <c r="D77" s="87">
         <v>373954.68784754002</v>
       </c>
-      <c r="E77" s="89">
+      <c r="E77" s="87">
         <v>65448.375152460001</v>
       </c>
-      <c r="F77" s="88">
+      <c r="F77" s="86">
         <v>44113.922768893397</v>
       </c>
-      <c r="G77" s="89">
+      <c r="G77" s="87">
         <v>86</v>
       </c>
-      <c r="H77" s="89">
+      <c r="H77" s="87">
         <v>180385.698778686</v>
       </c>
-      <c r="I77" s="90">
+      <c r="I77" s="88">
         <v>49</v>
       </c>
-      <c r="J77" s="91">
+      <c r="J77" s="89">
         <v>13.9978691440011</v>
       </c>
-      <c r="K77" s="91">
+      <c r="K77" s="89">
         <v>36.823717254149798</v>
       </c>
-      <c r="L77" s="92">
+      <c r="L77" s="90">
         <v>50.821586398150899</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="81" t="s">
+      <c r="A78" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="75" t="s">
+      <c r="B78" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="88">
+      <c r="C78" s="86">
         <v>448922.212</v>
       </c>
-      <c r="D78" s="89">
+      <c r="D78" s="87">
         <v>338649.97546436999</v>
       </c>
-      <c r="E78" s="89">
+      <c r="E78" s="87">
         <v>110272.23653563</v>
       </c>
-      <c r="F78" s="88">
+      <c r="F78" s="86">
         <v>52389.9629547472</v>
       </c>
-      <c r="G78" s="89">
+      <c r="G78" s="87">
         <v>102</v>
       </c>
-      <c r="H78" s="89">
+      <c r="H78" s="87">
         <v>77438.339879032093</v>
       </c>
-      <c r="I78" s="90">
+      <c r="I78" s="88">
         <v>32</v>
       </c>
-      <c r="J78" s="91">
+      <c r="J78" s="89">
         <v>31.939206384826399</v>
       </c>
-      <c r="K78" s="91">
+      <c r="K78" s="89">
         <v>23.505170251033899</v>
       </c>
-      <c r="L78" s="92">
+      <c r="L78" s="90">
         <v>55.444376635860301</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="81" t="s">
+      <c r="A79" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="93" t="s">
+      <c r="B79" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="94">
+      <c r="C79" s="92">
         <v>1384817.868</v>
       </c>
-      <c r="D79" s="95">
+      <c r="D79" s="93">
         <v>1130096.1384431899</v>
       </c>
-      <c r="E79" s="95">
+      <c r="E79" s="93">
         <v>254721.72955680999</v>
       </c>
-      <c r="F79" s="94">
+      <c r="F79" s="92">
         <v>187064.25317697501</v>
       </c>
-      <c r="G79" s="95">
+      <c r="G79" s="93">
         <v>348</v>
       </c>
-      <c r="H79" s="95">
+      <c r="H79" s="93">
         <v>527637.02761059802</v>
       </c>
-      <c r="I79" s="96">
+      <c r="I79" s="94">
         <v>155</v>
       </c>
-      <c r="J79" s="97">
+      <c r="J79" s="95">
         <v>29.172242003398299</v>
       </c>
-      <c r="K79" s="97">
+      <c r="K79" s="95">
         <v>25.5721876812209</v>
       </c>
-      <c r="L79" s="98">
+      <c r="L79" s="96">
         <v>54.744429684619298</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="81" t="s">
+      <c r="A80" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="75" t="s">
+      <c r="B80" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="88">
+      <c r="C80" s="86">
         <v>134266.21100000001</v>
       </c>
-      <c r="D80" s="89">
+      <c r="D80" s="87">
         <v>82882.726612810002</v>
       </c>
-      <c r="E80" s="89">
+      <c r="E80" s="87">
         <v>51383.484387190001</v>
       </c>
-      <c r="F80" s="88">
+      <c r="F80" s="86">
         <v>13163.852405761099</v>
       </c>
-      <c r="G80" s="89">
+      <c r="G80" s="87">
         <v>20</v>
       </c>
-      <c r="H80" s="89">
+      <c r="H80" s="87">
         <v>20551.492409252001</v>
       </c>
-      <c r="I80" s="90">
+      <c r="I80" s="88">
         <v>7</v>
       </c>
-      <c r="J80" s="91">
+      <c r="J80" s="89">
         <v>6.3109603211738001</v>
       </c>
-      <c r="K80" s="91">
+      <c r="K80" s="89">
         <v>65.597278093832301</v>
       </c>
-      <c r="L80" s="92">
+      <c r="L80" s="90">
         <v>71.908238415006096</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="81" t="s">
+      <c r="A81" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="75" t="s">
+      <c r="B81" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="88">
+      <c r="C81" s="86">
         <v>509668.49099999998</v>
       </c>
-      <c r="D81" s="89">
+      <c r="D81" s="87">
         <v>358009.4524211</v>
       </c>
-      <c r="E81" s="89">
+      <c r="E81" s="87">
         <v>151659.03857890001</v>
       </c>
-      <c r="F81" s="88">
+      <c r="F81" s="86">
         <v>68265.269829176905</v>
       </c>
-      <c r="G81" s="89">
+      <c r="G81" s="87">
         <v>131</v>
       </c>
-      <c r="H81" s="89">
+      <c r="H81" s="87">
         <v>131414.26154770999</v>
       </c>
-      <c r="I81" s="90">
+      <c r="I81" s="88">
         <v>55</v>
       </c>
-      <c r="J81" s="91">
+      <c r="J81" s="89">
         <v>8.9669243613152698</v>
       </c>
-      <c r="K81" s="91">
+      <c r="K81" s="89">
         <v>39.498838955945999</v>
       </c>
-      <c r="L81" s="92">
+      <c r="L81" s="90">
         <v>48.465763317261299</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="81" t="s">
+      <c r="A82" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="75" t="s">
+      <c r="B82" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="88">
+      <c r="C82" s="86">
         <v>1324305.1969999999</v>
       </c>
-      <c r="D82" s="89">
+      <c r="D82" s="87">
         <v>572879.92222944996</v>
       </c>
-      <c r="E82" s="89">
+      <c r="E82" s="87">
         <v>751425.27477054996</v>
       </c>
-      <c r="F82" s="88">
+      <c r="F82" s="86">
         <v>72151.261528982897</v>
       </c>
-      <c r="G82" s="89">
+      <c r="G82" s="87">
         <v>125</v>
       </c>
-      <c r="H82" s="89">
+      <c r="H82" s="87">
         <v>229698.84039258899</v>
       </c>
-      <c r="I82" s="90">
+      <c r="I82" s="88">
         <v>69</v>
       </c>
-      <c r="J82" s="91">
+      <c r="J82" s="89">
         <v>6.4204058297979198</v>
       </c>
-      <c r="K82" s="91">
+      <c r="K82" s="89">
         <v>68.288603279899306</v>
       </c>
-      <c r="L82" s="92">
+      <c r="L82" s="90">
         <v>74.709009109697206</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="81" t="s">
+      <c r="A83" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="75" t="s">
+      <c r="B83" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="76">
+      <c r="C83" s="74">
         <v>6029615.517</v>
       </c>
-      <c r="D83" s="77">
+      <c r="D83" s="75">
         <v>3560559.3788310899</v>
       </c>
-      <c r="E83" s="95">
+      <c r="E83" s="93">
         <v>2469056.1381689101</v>
       </c>
-      <c r="F83" s="76">
+      <c r="F83" s="74">
         <v>529883.29975650902</v>
       </c>
-      <c r="G83" s="77">
+      <c r="G83" s="75">
         <v>955</v>
       </c>
-      <c r="H83" s="77">
+      <c r="H83" s="75">
         <v>1627536.49976254</v>
       </c>
-      <c r="I83" s="78">
+      <c r="I83" s="76">
         <v>479</v>
       </c>
-      <c r="J83" s="97">
+      <c r="J83" s="95">
         <v>20.265895616534699</v>
       </c>
-      <c r="K83" s="79">
+      <c r="K83" s="77">
         <v>33.244440702732597</v>
       </c>
-      <c r="L83" s="80">
+      <c r="L83" s="78">
         <v>53.510336319267303</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="81" t="s">
+      <c r="A84" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="99" t="s">
+      <c r="B84" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="100">
+      <c r="C84" s="98">
         <v>596906.55000000005</v>
       </c>
-      <c r="D84" s="101">
+      <c r="D84" s="99">
         <v>198222.94339403999</v>
       </c>
-      <c r="E84" s="89">
+      <c r="E84" s="87">
         <v>398683.60660596</v>
       </c>
-      <c r="F84" s="100">
+      <c r="F84" s="98">
         <v>19974.205181744699</v>
       </c>
-      <c r="G84" s="101">
+      <c r="G84" s="99">
         <v>35</v>
       </c>
-      <c r="H84" s="101">
+      <c r="H84" s="99">
         <v>76551.023340551896</v>
       </c>
-      <c r="I84" s="102">
+      <c r="I84" s="100">
         <v>28</v>
       </c>
-      <c r="J84" s="91">
+      <c r="J84" s="89">
         <v>5.1484552510714297</v>
       </c>
-      <c r="K84" s="103">
+      <c r="K84" s="101">
         <v>79.3011407546946</v>
       </c>
-      <c r="L84" s="104">
+      <c r="L84" s="102">
         <v>84.449596005765997</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="81" t="s">
+      <c r="A85" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="105" t="s">
+      <c r="B85" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="88">
+      <c r="C85" s="86">
         <v>126077.514</v>
       </c>
-      <c r="D85" s="89">
+      <c r="D85" s="87">
         <v>54966.989837460002</v>
       </c>
-      <c r="E85" s="89">
+      <c r="E85" s="87">
         <v>71110.524162539994</v>
       </c>
-      <c r="F85" s="88">
+      <c r="F85" s="86">
         <v>9205.4486332666693</v>
       </c>
-      <c r="G85" s="89">
+      <c r="G85" s="87">
         <v>16</v>
       </c>
-      <c r="H85" s="89">
+      <c r="H85" s="87">
         <v>21419.5485986561</v>
       </c>
-      <c r="I85" s="90">
+      <c r="I85" s="88">
         <v>9</v>
       </c>
-      <c r="J85" s="91">
+      <c r="J85" s="89">
         <v>8.4486218423092705</v>
       </c>
-      <c r="K85" s="91">
+      <c r="K85" s="89">
         <v>54.458330057265997</v>
       </c>
-      <c r="L85" s="92">
+      <c r="L85" s="90">
         <v>62.906951899575297</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="81" t="s">
+      <c r="A86" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="75" t="s">
+      <c r="B86" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="88">
+      <c r="C86" s="86">
         <v>783522.99800000002</v>
       </c>
-      <c r="D86" s="89">
+      <c r="D86" s="87">
         <v>402873.59815391002</v>
       </c>
-      <c r="E86" s="89">
+      <c r="E86" s="87">
         <v>380649.39984609</v>
       </c>
-      <c r="F86" s="88">
+      <c r="F86" s="86">
         <v>55575.672327866399</v>
       </c>
-      <c r="G86" s="89">
+      <c r="G86" s="87">
         <v>96</v>
       </c>
-      <c r="H86" s="89">
+      <c r="H86" s="87">
         <v>150041.424740288</v>
       </c>
-      <c r="I86" s="90">
+      <c r="I86" s="88">
         <v>41</v>
       </c>
-      <c r="J86" s="91">
+      <c r="J86" s="89">
         <v>6.6913905947258598</v>
       </c>
-      <c r="K86" s="91">
+      <c r="K86" s="89">
         <v>64.160478618748101</v>
       </c>
-      <c r="L86" s="92">
+      <c r="L86" s="90">
         <v>70.851869213473904</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="81" t="s">
+      <c r="A87" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="75" t="s">
+      <c r="B87" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="88">
+      <c r="C87" s="86">
         <v>2444089.844</v>
       </c>
-      <c r="D87" s="89">
+      <c r="D87" s="87">
         <v>976897.16417279001</v>
       </c>
-      <c r="E87" s="89">
+      <c r="E87" s="87">
         <v>1467192.67982721</v>
       </c>
-      <c r="F87" s="88">
+      <c r="F87" s="86">
         <v>120885.63273861801</v>
       </c>
-      <c r="G87" s="89">
+      <c r="G87" s="87">
         <v>219</v>
       </c>
-      <c r="H87" s="89">
+      <c r="H87" s="87">
         <v>422673.11370922398</v>
       </c>
-      <c r="I87" s="90">
+      <c r="I87" s="88">
         <v>113</v>
       </c>
-      <c r="J87" s="91">
+      <c r="J87" s="89">
         <v>9.6664666888969997</v>
       </c>
-      <c r="K87" s="91">
+      <c r="K87" s="89">
         <v>47.242415854860198</v>
       </c>
-      <c r="L87" s="92">
+      <c r="L87" s="90">
         <v>56.908882543757102</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="81" t="s">
+      <c r="A88" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="75" t="s">
+      <c r="B88" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="88">
+      <c r="C88" s="86">
         <v>78034.2</v>
       </c>
-      <c r="D88" s="89">
+      <c r="D88" s="87">
         <v>54602.78168231</v>
       </c>
-      <c r="E88" s="89">
+      <c r="E88" s="87">
         <v>23431.418317690001</v>
       </c>
-      <c r="F88" s="88">
+      <c r="F88" s="86">
         <v>9765.23642513294</v>
       </c>
-      <c r="G88" s="89">
+      <c r="G88" s="87">
         <v>14</v>
       </c>
-      <c r="H88" s="89">
+      <c r="H88" s="87">
         <v>23657.884721001399</v>
       </c>
-      <c r="I88" s="90">
+      <c r="I88" s="88">
         <v>7</v>
       </c>
-      <c r="J88" s="91">
+      <c r="J88" s="89">
         <v>8.4776380701286502</v>
       </c>
-      <c r="K88" s="91">
+      <c r="K88" s="89">
         <v>48.949281845898398</v>
       </c>
-      <c r="L88" s="92">
+      <c r="L88" s="90">
         <v>57.426919916027103</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="81" t="s">
+      <c r="A89" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="75" t="s">
+      <c r="B89" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="88">
+      <c r="C89" s="86">
         <v>2723966.1949999998</v>
       </c>
-      <c r="D89" s="89">
+      <c r="D89" s="87">
         <v>1868383.56799982</v>
       </c>
-      <c r="E89" s="89">
+      <c r="E89" s="87">
         <v>855582.627000181</v>
       </c>
-      <c r="F89" s="88">
+      <c r="F89" s="86">
         <v>302406.42000937997</v>
       </c>
-      <c r="G89" s="89">
+      <c r="G89" s="87">
         <v>538</v>
       </c>
-      <c r="H89" s="89">
+      <c r="H89" s="87">
         <v>851145.53533638804</v>
       </c>
-      <c r="I89" s="90">
+      <c r="I89" s="88">
         <v>272</v>
       </c>
-      <c r="J89" s="91">
+      <c r="J89" s="89">
         <v>15.8585802965776</v>
       </c>
-      <c r="K89" s="91">
+      <c r="K89" s="89">
         <v>34.354624894823999</v>
       </c>
-      <c r="L89" s="92">
+      <c r="L89" s="90">
         <v>50.213205191401599</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="81" t="s">
+      <c r="A90" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="93" t="s">
+      <c r="B90" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="94">
+      <c r="C90" s="92">
         <v>1216419.6159999999</v>
       </c>
-      <c r="D90" s="95">
+      <c r="D90" s="93">
         <v>992880.24310850003</v>
       </c>
-      <c r="E90" s="95">
+      <c r="E90" s="93">
         <v>223539.37289150001</v>
       </c>
-      <c r="F90" s="94">
+      <c r="F90" s="92">
         <v>161149.550810202</v>
       </c>
-      <c r="G90" s="95">
+      <c r="G90" s="93">
         <v>304</v>
       </c>
-      <c r="H90" s="95">
+      <c r="H90" s="93">
         <v>455458.63968861301</v>
       </c>
-      <c r="I90" s="96">
+      <c r="I90" s="94">
         <v>135</v>
       </c>
-      <c r="J90" s="97">
+      <c r="J90" s="95">
         <v>25.4947581024656</v>
       </c>
-      <c r="K90" s="97">
+      <c r="K90" s="95">
         <v>26.159540475506901</v>
       </c>
-      <c r="L90" s="98">
+      <c r="L90" s="96">
         <v>51.654298577972398</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="81" t="s">
+      <c r="A91" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="75" t="s">
+      <c r="B91" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="88">
+      <c r="C91" s="86">
         <v>776678.89099999995</v>
       </c>
-      <c r="D91" s="89">
+      <c r="D91" s="87">
         <v>284102.17468423001</v>
       </c>
-      <c r="E91" s="89">
+      <c r="E91" s="87">
         <v>492576.71631577</v>
       </c>
-      <c r="F91" s="88">
+      <c r="F91" s="86">
         <v>33156.546873859799</v>
       </c>
-      <c r="G91" s="89">
+      <c r="G91" s="87">
         <v>56</v>
       </c>
-      <c r="H91" s="89">
+      <c r="H91" s="87">
         <v>106142.42229541</v>
       </c>
-      <c r="I91" s="90">
+      <c r="I91" s="88">
         <v>36</v>
       </c>
-      <c r="J91" s="91">
+      <c r="J91" s="89">
         <v>5.3940166124567899</v>
       </c>
-      <c r="K91" s="91">
+      <c r="K91" s="89">
         <v>76.340554249964896</v>
       </c>
-      <c r="L91" s="92">
+      <c r="L91" s="90">
         <v>81.734570862421705</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="81" t="s">
+      <c r="A92" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="75" t="s">
+      <c r="B92" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="88">
+      <c r="C92" s="86">
         <v>373667.88299999997</v>
       </c>
-      <c r="D92" s="89">
+      <c r="D92" s="87">
         <v>134357.39439522001</v>
       </c>
-      <c r="E92" s="89">
+      <c r="E92" s="87">
         <v>239310.48860478</v>
       </c>
-      <c r="F92" s="88">
+      <c r="F92" s="86">
         <v>12942.2122475868</v>
       </c>
-      <c r="G92" s="89">
+      <c r="G92" s="87">
         <v>19</v>
       </c>
-      <c r="H92" s="89">
+      <c r="H92" s="87">
         <v>52411.079964616998</v>
       </c>
-      <c r="I92" s="90">
+      <c r="I92" s="88">
         <v>11</v>
       </c>
-      <c r="J92" s="91">
+      <c r="J92" s="89">
         <v>7.7852392156575103</v>
       </c>
-      <c r="K92" s="91">
+      <c r="K92" s="89">
         <v>53.104204020422799</v>
       </c>
-      <c r="L92" s="92">
+      <c r="L92" s="90">
         <v>60.889443236080297</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="81" t="s">
+      <c r="A93" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="75" t="s">
+      <c r="B93" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="88">
+      <c r="C93" s="86">
         <v>5241.6719999999996</v>
       </c>
-      <c r="D93" s="89">
+      <c r="D93" s="87">
         <v>2413.6096037100001</v>
       </c>
-      <c r="E93" s="89">
+      <c r="E93" s="87">
         <v>2828.0623962899999</v>
       </c>
-      <c r="F93" s="88">
+      <c r="F93" s="86">
         <v>666.48961781548496</v>
       </c>
-      <c r="G93" s="89">
+      <c r="G93" s="87">
         <v>1</v>
       </c>
-      <c r="H93" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="I93" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="91">
+      <c r="H93" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="89">
         <v>9.7564347710451091</v>
       </c>
-      <c r="K93" s="91">
+      <c r="K93" s="89">
         <v>49.297614727329098</v>
       </c>
-      <c r="L93" s="92">
+      <c r="L93" s="90">
         <v>59.054049498374198</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="81" t="s">
+      <c r="A94" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="75" t="s">
+      <c r="B94" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="88">
+      <c r="C94" s="86">
         <v>62684.402999999998</v>
       </c>
-      <c r="D94" s="89">
+      <c r="D94" s="87">
         <v>38331.535433190002</v>
       </c>
-      <c r="E94" s="89">
+      <c r="E94" s="87">
         <v>24352.86756681</v>
       </c>
-      <c r="F94" s="88">
+      <c r="F94" s="86">
         <v>3054.6540004549302</v>
       </c>
-      <c r="G94" s="89">
+      <c r="G94" s="87">
         <v>6</v>
       </c>
-      <c r="H94" s="89">
+      <c r="H94" s="87">
         <v>14581.295936250401</v>
       </c>
-      <c r="I94" s="90">
+      <c r="I94" s="88">
         <v>4</v>
       </c>
-      <c r="J94" s="91">
+      <c r="J94" s="89">
         <v>11.836696991378499</v>
       </c>
-      <c r="K94" s="91">
+      <c r="K94" s="89">
         <v>41.213545760427799</v>
       </c>
-      <c r="L94" s="92">
+      <c r="L94" s="90">
         <v>53.050242751806302</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="81" t="s">
+      <c r="A95" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="75" t="s">
+      <c r="B95" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="88">
+      <c r="C95" s="86">
         <v>375683.73100000003</v>
       </c>
-      <c r="D95" s="89">
+      <c r="D95" s="87">
         <v>100787.79949364001</v>
       </c>
-      <c r="E95" s="89">
+      <c r="E95" s="87">
         <v>274895.93150636001</v>
       </c>
-      <c r="F95" s="88">
+      <c r="F95" s="86">
         <v>6651.1824225727496</v>
       </c>
-      <c r="G95" s="89">
+      <c r="G95" s="87">
         <v>12</v>
       </c>
-      <c r="H95" s="89">
+      <c r="H95" s="87">
         <v>29283.339923754302</v>
       </c>
-      <c r="I95" s="90">
+      <c r="I95" s="88">
         <v>13</v>
       </c>
-      <c r="J95" s="91">
+      <c r="J95" s="89">
         <v>5.0314962768067302</v>
       </c>
-      <c r="K95" s="91">
+      <c r="K95" s="89">
         <v>76.736084972572996</v>
       </c>
-      <c r="L95" s="92">
+      <c r="L95" s="90">
         <v>81.767581249379802</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="81" t="s">
+      <c r="A96" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="75" t="s">
+      <c r="B96" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="76">
+      <c r="C96" s="74">
         <v>201132.698</v>
       </c>
-      <c r="D96" s="77">
+      <c r="D96" s="75">
         <v>85547.755546259999</v>
       </c>
-      <c r="E96" s="95">
+      <c r="E96" s="93">
         <v>115584.94245374</v>
       </c>
-      <c r="F96" s="76">
+      <c r="F96" s="74">
         <v>11876.574082571</v>
       </c>
-      <c r="G96" s="77">
+      <c r="G96" s="75">
         <v>23</v>
       </c>
-      <c r="H96" s="77">
+      <c r="H96" s="75">
         <v>28447.503840427202</v>
       </c>
-      <c r="I96" s="78">
+      <c r="I96" s="76">
         <v>14</v>
       </c>
-      <c r="J96" s="97">
+      <c r="J96" s="95">
         <v>10.6708451628686</v>
       </c>
-      <c r="K96" s="79">
+      <c r="K96" s="77">
         <v>44.688983564999802</v>
       </c>
-      <c r="L96" s="80">
+      <c r="L96" s="78">
         <v>55.359828727868397</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="81" t="s">
+      <c r="A97" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="99" t="s">
+      <c r="B97" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="100">
+      <c r="C97" s="98">
         <v>864235.26899999997</v>
       </c>
-      <c r="D97" s="101">
+      <c r="D97" s="99">
         <v>362618.76061385998</v>
       </c>
-      <c r="E97" s="89">
+      <c r="E97" s="87">
         <v>501616.50838613999</v>
       </c>
-      <c r="F97" s="100">
+      <c r="F97" s="98">
         <v>50660.528904088897</v>
       </c>
-      <c r="G97" s="101">
+      <c r="G97" s="99">
         <v>85</v>
       </c>
-      <c r="H97" s="101">
+      <c r="H97" s="99">
         <v>122484.312310979</v>
       </c>
-      <c r="I97" s="102">
+      <c r="I97" s="100">
         <v>39</v>
       </c>
-      <c r="J97" s="91">
+      <c r="J97" s="89">
         <v>5.4035097929820104</v>
       </c>
-      <c r="K97" s="103">
+      <c r="K97" s="101">
         <v>71.901444957609399</v>
       </c>
-      <c r="L97" s="104">
+      <c r="L97" s="102">
         <v>77.304954750591406</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="81" t="s">
+      <c r="A98" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="93" t="s">
+      <c r="B98" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="C98" s="94">
+      <c r="C98" s="92">
         <v>701591.39199999999</v>
       </c>
-      <c r="D98" s="95">
+      <c r="D98" s="93">
         <v>325827.09598331002</v>
       </c>
-      <c r="E98" s="95">
+      <c r="E98" s="93">
         <v>375764.29601668997</v>
       </c>
-      <c r="F98" s="94">
+      <c r="F98" s="92">
         <v>34961.522810574097</v>
       </c>
-      <c r="G98" s="95">
+      <c r="G98" s="93">
         <v>60</v>
       </c>
-      <c r="H98" s="95">
+      <c r="H98" s="93">
         <v>134787.47189971799</v>
       </c>
-      <c r="I98" s="96">
+      <c r="I98" s="94">
         <v>35</v>
       </c>
-      <c r="J98" s="97">
+      <c r="J98" s="95">
         <v>8.9479014122894505</v>
       </c>
-      <c r="K98" s="97">
+      <c r="K98" s="95">
         <v>47.078479993259997</v>
       </c>
-      <c r="L98" s="98">
+      <c r="L98" s="96">
         <v>56.026381405549401</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="106"/>
-      <c r="B99" s="107"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="77"/>
-      <c r="H99" s="77"/>
-      <c r="I99" s="77"/>
-      <c r="J99" s="77"/>
-      <c r="K99" s="77"/>
-      <c r="L99" s="77"/>
+      <c r="A99" s="104"/>
+      <c r="B99" s="105"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C100" s="108"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="108"/>
-      <c r="F100" s="108"/>
-      <c r="G100" s="108"/>
-      <c r="H100" s="108"/>
-      <c r="I100" s="108"/>
-      <c r="J100" s="108"/>
-      <c r="K100" s="108"/>
-      <c r="L100" s="108"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="106"/>
+      <c r="H100" s="106"/>
+      <c r="I100" s="106"/>
+      <c r="J100" s="106"/>
+      <c r="K100" s="106"/>
+      <c r="L100" s="106"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="108"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="108"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="108"/>
-      <c r="H101" s="108"/>
-      <c r="I101" s="108"/>
-      <c r="J101" s="108"/>
-      <c r="K101" s="108"/>
-      <c r="L101" s="108"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="106"/>
+      <c r="I101" s="106"/>
+      <c r="J101" s="106"/>
+      <c r="K101" s="106"/>
+      <c r="L101" s="106"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
-      <c r="G102" s="108"/>
-      <c r="H102" s="108"/>
-      <c r="I102" s="108"/>
-      <c r="J102" s="108"/>
-      <c r="K102" s="108"/>
-      <c r="L102" s="108"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="106"/>
+      <c r="H102" s="106"/>
+      <c r="I102" s="106"/>
+      <c r="J102" s="106"/>
+      <c r="K102" s="106"/>
+      <c r="L102" s="106"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="108"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="108"/>
-      <c r="H103" s="108"/>
-      <c r="I103" s="108"/>
-      <c r="J103" s="108"/>
-      <c r="K103" s="108"/>
-      <c r="L103" s="108"/>
+      <c r="C103" s="106"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="106"/>
+      <c r="F103" s="106"/>
+      <c r="G103" s="106"/>
+      <c r="H103" s="106"/>
+      <c r="I103" s="106"/>
+      <c r="J103" s="106"/>
+      <c r="K103" s="106"/>
+      <c r="L103" s="106"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C104" s="108"/>
-      <c r="D104" s="108"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="108"/>
-      <c r="G104" s="108"/>
-      <c r="H104" s="108"/>
-      <c r="I104" s="108"/>
-      <c r="J104" s="108"/>
-      <c r="K104" s="108"/>
-      <c r="L104" s="108"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="106"/>
+      <c r="F104" s="106"/>
+      <c r="G104" s="106"/>
+      <c r="H104" s="106"/>
+      <c r="I104" s="106"/>
+      <c r="J104" s="106"/>
+      <c r="K104" s="106"/>
+      <c r="L104" s="106"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C105" s="108"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="108"/>
-      <c r="H105" s="108"/>
-      <c r="I105" s="108"/>
-      <c r="J105" s="108"/>
-      <c r="K105" s="108"/>
-      <c r="L105" s="108"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="106"/>
+      <c r="E105" s="106"/>
+      <c r="F105" s="106"/>
+      <c r="G105" s="106"/>
+      <c r="H105" s="106"/>
+      <c r="I105" s="106"/>
+      <c r="J105" s="106"/>
+      <c r="K105" s="106"/>
+      <c r="L105" s="106"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C106" s="108"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="108"/>
-      <c r="F106" s="108"/>
-      <c r="G106" s="108"/>
-      <c r="H106" s="108"/>
-      <c r="I106" s="108"/>
-      <c r="J106" s="108"/>
-      <c r="K106" s="108"/>
-      <c r="L106" s="108"/>
+      <c r="C106" s="106"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="106"/>
+      <c r="F106" s="106"/>
+      <c r="G106" s="106"/>
+      <c r="H106" s="106"/>
+      <c r="I106" s="106"/>
+      <c r="J106" s="106"/>
+      <c r="K106" s="106"/>
+      <c r="L106" s="106"/>
     </row>
     <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="109" t="s">
+      <c r="B107" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="C107" s="108"/>
-      <c r="D107" s="108"/>
-      <c r="E107" s="108"/>
-      <c r="F107" s="108"/>
-      <c r="G107" s="108"/>
-      <c r="H107" s="108"/>
-      <c r="I107" s="108"/>
-      <c r="J107" s="108"/>
-      <c r="K107" s="108"/>
-      <c r="L107" s="108"/>
+      <c r="C107" s="106"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="106"/>
+      <c r="F107" s="106"/>
+      <c r="G107" s="106"/>
+      <c r="H107" s="106"/>
+      <c r="I107" s="106"/>
+      <c r="J107" s="106"/>
+      <c r="K107" s="106"/>
+      <c r="L107" s="106"/>
     </row>
     <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="109"/>
-      <c r="C108" s="108"/>
-      <c r="D108" s="108"/>
-      <c r="E108" s="108"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="108"/>
-      <c r="H108" s="108"/>
-      <c r="I108" s="108"/>
-      <c r="J108" s="108"/>
-      <c r="K108" s="108"/>
-      <c r="L108" s="108"/>
+      <c r="B108" s="107"/>
+      <c r="C108" s="106"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="106"/>
+      <c r="F108" s="106"/>
+      <c r="G108" s="106"/>
+      <c r="H108" s="106"/>
+      <c r="I108" s="106"/>
+      <c r="J108" s="106"/>
+      <c r="K108" s="106"/>
+      <c r="L108" s="106"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C109" s="108"/>
-      <c r="D109" s="108"/>
-      <c r="E109" s="108"/>
-      <c r="F109" s="108"/>
-      <c r="G109" s="108"/>
-      <c r="H109" s="108"/>
-      <c r="I109" s="108"/>
-      <c r="J109" s="108"/>
-      <c r="K109" s="108"/>
-      <c r="L109" s="108"/>
+      <c r="C109" s="106"/>
+      <c r="D109" s="106"/>
+      <c r="E109" s="106"/>
+      <c r="F109" s="106"/>
+      <c r="G109" s="106"/>
+      <c r="H109" s="106"/>
+      <c r="I109" s="106"/>
+      <c r="J109" s="106"/>
+      <c r="K109" s="106"/>
+      <c r="L109" s="106"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C110" s="108"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="108"/>
-      <c r="F110" s="108"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="108"/>
-      <c r="I110" s="108"/>
-      <c r="J110" s="108"/>
-      <c r="K110" s="108"/>
-      <c r="L110" s="108"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="106"/>
+      <c r="G110" s="106"/>
+      <c r="H110" s="106"/>
+      <c r="I110" s="106"/>
+      <c r="J110" s="106"/>
+      <c r="K110" s="106"/>
+      <c r="L110" s="106"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="113" t="s">
+      <c r="B111" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="C111" s="108"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="108"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="108"/>
-      <c r="H111" s="108"/>
-      <c r="I111" s="108"/>
-      <c r="J111" s="108"/>
-      <c r="K111" s="108"/>
-      <c r="L111" s="108"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="106"/>
+      <c r="F111" s="106"/>
+      <c r="G111" s="106"/>
+      <c r="H111" s="106"/>
+      <c r="I111" s="106"/>
+      <c r="J111" s="106"/>
+      <c r="K111" s="106"/>
+      <c r="L111" s="106"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="108"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="108"/>
-      <c r="F112" s="108"/>
-      <c r="G112" s="108"/>
-      <c r="H112" s="108"/>
-      <c r="I112" s="108"/>
-      <c r="J112" s="108"/>
-      <c r="K112" s="108"/>
-      <c r="L112" s="108"/>
+      <c r="C112" s="106"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="106"/>
+      <c r="G112" s="106"/>
+      <c r="H112" s="106"/>
+      <c r="I112" s="106"/>
+      <c r="J112" s="106"/>
+      <c r="K112" s="106"/>
+      <c r="L112" s="106"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
-      <c r="G113" s="108"/>
-      <c r="H113" s="108"/>
-      <c r="I113" s="108"/>
-      <c r="J113" s="108"/>
-      <c r="K113" s="108"/>
-      <c r="L113" s="108"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="106"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="106"/>
+      <c r="G113" s="106"/>
+      <c r="H113" s="106"/>
+      <c r="I113" s="106"/>
+      <c r="J113" s="106"/>
+      <c r="K113" s="106"/>
+      <c r="L113" s="106"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="108"/>
-      <c r="D114" s="108"/>
-      <c r="E114" s="108"/>
-      <c r="F114" s="108"/>
-      <c r="G114" s="108"/>
-      <c r="H114" s="108"/>
-      <c r="I114" s="108"/>
-      <c r="J114" s="108"/>
-      <c r="K114" s="108"/>
-      <c r="L114" s="108"/>
+      <c r="C114" s="106"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="106"/>
+      <c r="F114" s="106"/>
+      <c r="G114" s="106"/>
+      <c r="H114" s="106"/>
+      <c r="I114" s="106"/>
+      <c r="J114" s="106"/>
+      <c r="K114" s="106"/>
+      <c r="L114" s="106"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="110"/>
+      <c r="B115" s="109"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C9AEBECE-6101-4917-A380-A5D366CDC061}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6E6EA341-B5D9-4B66-A7B3-812609FCF55B}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{28079A92-BABE-4FA8-AE72-753CF0C43B96}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{D3D9A49E-FB02-461A-9F90-C3598321A38A}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{D754FAF5-AB8E-4BA9-A27F-B74A24320219}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{A6540E8D-37D5-4691-B974-60D436DBE95A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0D2C1D62-7A9D-4812-9432-7028F6F17B23}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8575EF98-FA5F-4FD3-9932-2339B92D7461}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EBAC9D3A-E1B6-4E8C-A608-E6576625748E}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{093A44DB-2E91-49FA-AF29-9AB6704B1837}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{E5009872-7FDD-4FEF-93B0-019B47639B24}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{C0D29556-C5B2-4E4C-98A1-DC467F6ED47C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab05.xlsx
+++ b/AfDD_2024_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E390528-A246-43A1-90C8-12FB340FCD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C060A42E-8FEC-4484-A13F-3BE61828800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{82D2569E-D402-42DC-BE8F-370BBAC6D646}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{FF65489A-8191-44DB-A399-DC81E9EFCAC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -1556,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C4133D-D982-4D92-ADE6-B4A4CFBB9645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF25D8B-0DCD-4CE4-9A08-04EC4195B9B8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5507,12 +5507,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0D2C1D62-7A9D-4812-9432-7028F6F17B23}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8575EF98-FA5F-4FD3-9932-2339B92D7461}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EBAC9D3A-E1B6-4E8C-A608-E6576625748E}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{093A44DB-2E91-49FA-AF29-9AB6704B1837}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{E5009872-7FDD-4FEF-93B0-019B47639B24}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{C0D29556-C5B2-4E4C-98A1-DC467F6ED47C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6852F45C-87A3-4864-83E8-E1F7B2C1287B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BBF6F3A2-CABE-4263-AF99-A9B05CF77EBA}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{302D3CD5-6EC4-4371-BE2D-9F9BBEF28B53}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{C6958259-EAA2-4254-8FDD-7229FCF991C4}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{FCD0DA65-9570-46DC-BA02-75BD93B786A7}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F4A05D01-0417-4518-8ABE-A9C7975A2714}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId7"/>
